--- a/메이플스토리.xlsx
+++ b/메이플스토리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395BC90E-DF4A-4131-A91C-DEFB38764421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EC7AF-09AA-44AB-990F-8751D8447AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="120" windowWidth="23670" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29085" yWindow="1725" windowWidth="21600" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="344">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1342,6 +1342,10 @@
   </si>
   <si>
     <t>루미너스M</t>
+  </si>
+  <si>
+    <t>K전사카이저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1660,6 +1664,9 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,9 +1676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
@@ -1680,80 +1684,6 @@
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="55">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1848,6 +1778,80 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2361,10 +2365,10 @@
       <c r="D3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2376,8 +2380,8 @@
       <c r="D4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
@@ -2387,8 +2391,8 @@
       <c r="D5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -2560,7 +2564,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2586,9 +2590,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="C1" s="30">
+      <c r="C1" s="27">
         <f>C2-32</f>
-        <v>7827</v>
+        <v>7994</v>
       </c>
       <c r="L1" s="1">
         <f>COLUMN()-9</f>
@@ -2630,11 +2634,11 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <f>COUNTIF(B$5:B$55,"*" &amp; B3 &amp; "*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="26">
         <f>C3+캐릭터m!C3</f>
-        <v>7859</v>
+        <v>8026</v>
       </c>
       <c r="D2" s="1">
         <f>COUNTIF(D$5:D$55,"*" &amp; D3 &amp; "*")</f>
@@ -2659,7 +2663,7 @@
       </c>
       <c r="C3" s="15">
         <f>SUM(C5:C55)-136</f>
-        <v>7718</v>
+        <v>7885</v>
       </c>
       <c r="D3" t="s">
         <v>221</v>
@@ -2848,7 +2852,7 @@
       </c>
       <c r="X6" s="2">
         <f>COUNTIF($E$5:$E$55,V6)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
@@ -3921,7 +3925,7 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
@@ -5616,7 +5620,7 @@
         <v>312</v>
       </c>
       <c r="C42" s="2">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>15</v>
@@ -5689,21 +5693,25 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C43" s="2">
+        <v>118</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E43" s="2" t="str">
         <f>IF(D43="","",VLOOKUP($D43,직업!$B$3:$D$524,2,FALSE))</f>
-        <v/>
+        <v>전사</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" ref="F43:F54" si="7">IFERROR(VLOOKUP(E43,$V$6:$W$11,2,FALSE),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2" t="str">
         <f>IF(OR(E43="",RIGHT(D43,1)="M"),"",VLOOKUP($D43,직업!$B$3:$D$524,3,FALSE))</f>
-        <v/>
+        <v>노바</v>
       </c>
       <c r="H43" s="2">
         <f>IFERROR(VLOOKUP(B43,배치!$B$4:$I$55,7,FALSE),"")</f>
@@ -5712,19 +5720,19 @@
       <c r="I43" s="3"/>
       <c r="J43" s="2">
         <f t="shared" ref="J43:J54" si="8">IFERROR(VLOOKUP(G43,$V$14:$W$24,2,FALSE),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K43" s="3" t="str">
         <f>IF(J43=0,"",VLOOKUP(J43,$J$5:T42,2,FALSE))</f>
-        <v/>
+        <v>산호</v>
       </c>
       <c r="L43" s="3" t="str">
         <f>IF($K43="","",IFERROR(IF(VLOOKUP($J43,$J$5:T42,L$1,FALSE)="","",VLOOKUP($J43,$J$5:T42,L$1,FALSE)),""))</f>
-        <v/>
+        <v>나리</v>
       </c>
       <c r="M43" s="3" t="str">
         <f>IF($K43="","",IFERROR(IF(VLOOKUP($J43,$J$5:U42,M$1,FALSE)="","",VLOOKUP($J43,$J$5:U42,M$1,FALSE)),""))</f>
-        <v/>
+        <v>백호</v>
       </c>
       <c r="N43" s="3" t="str">
         <f>IF($K43="","",IFERROR(IF(VLOOKUP($J43,$J$5:V42,N$1,FALSE)="","",VLOOKUP($J43,$J$5:V42,N$1,FALSE)),""))</f>
@@ -6655,7 +6663,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6843,46 +6851,16 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="3" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J5,$J4:T$5,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:T$5,L$1,FALSE)="","",VLOOKUP($J5,$J4:T$5,L$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="M5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:U$5,M$1,FALSE)="","",VLOOKUP($J5,$J4:U$5,M$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="N5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:V$5,N$1,FALSE)="","",VLOOKUP($J5,$J4:V$5,N$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="O5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:W$5,O$1,FALSE)="","",VLOOKUP($J5,$J4:W$5,O$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="P5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:X$5,P$1,FALSE)="","",VLOOKUP($J5,$J4:X$5,P$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="Q5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:Y$5,Q$1,FALSE)="","",VLOOKUP($J5,$J4:Y$5,Q$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="R5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:Z$5,R$1,FALSE)="","",VLOOKUP($J5,$J4:Z$5,R$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="S5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:AA$5,S$1,FALSE)="","",VLOOKUP($J5,$J4:AA$5,S$1,FALSE)),""))</f>
-        <v/>
-      </c>
-      <c r="T5" s="3" t="str">
-        <f ca="1">IF($K5="","",IFERROR(IF(VLOOKUP($J5,$J4:AB$5,T$1,FALSE)="","",VLOOKUP($J5,$J4:AB$5,T$1,FALSE)),""))</f>
-        <v/>
-      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
       <c r="V5" s="4" t="s">
         <v>340</v>
       </c>
@@ -6928,44 +6906,44 @@
         <f t="shared" ref="J6:J54" si="3">IFERROR(VLOOKUP(G6,$V$14:$W$24,2,FALSE),0)</f>
         <v>2</v>
       </c>
-      <c r="K6" s="3" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J6,$J$5:T5,2,FALSE),"")</f>
-        <v/>
+      <c r="K6" s="3">
+        <f>IFERROR(VLOOKUP(J6,$J$5:T5,2,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:T5,L$1,FALSE)="","",VLOOKUP($J6,$J$5:T5,L$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:T5,L$1,FALSE)="","",VLOOKUP($J6,$J$5:T5,L$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="M6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:U5,M$1,FALSE)="","",VLOOKUP($J6,$J$5:U5,M$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:U5,M$1,FALSE)="","",VLOOKUP($J6,$J$5:U5,M$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="N6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:V5,N$1,FALSE)="","",VLOOKUP($J6,$J$5:V5,N$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:V5,N$1,FALSE)="","",VLOOKUP($J6,$J$5:V5,N$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="O6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:W5,O$1,FALSE)="","",VLOOKUP($J6,$J$5:W5,O$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:W5,O$1,FALSE)="","",VLOOKUP($J6,$J$5:W5,O$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="P6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:X5,P$1,FALSE)="","",VLOOKUP($J6,$J$5:X5,P$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:X5,P$1,FALSE)="","",VLOOKUP($J6,$J$5:X5,P$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="Q6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:Y5,Q$1,FALSE)="","",VLOOKUP($J6,$J$5:Y5,Q$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:Y5,Q$1,FALSE)="","",VLOOKUP($J6,$J$5:Y5,Q$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="R6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:Z5,R$1,FALSE)="","",VLOOKUP($J6,$J$5:Z5,R$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:Z5,R$1,FALSE)="","",VLOOKUP($J6,$J$5:Z5,R$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="S6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:AA5,S$1,FALSE)="","",VLOOKUP($J6,$J$5:AA5,S$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:AA5,S$1,FALSE)="","",VLOOKUP($J6,$J$5:AA5,S$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="T6" s="3" t="str">
-        <f ca="1">IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:AB5,T$1,FALSE)="","",VLOOKUP($J6,$J$5:AB5,T$1,FALSE)),""))</f>
+        <f>IF($K6="","",IFERROR(IF(VLOOKUP($J6,$J$5:AB5,T$1,FALSE)="","",VLOOKUP($J6,$J$5:AB5,T$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="V6" s="3" t="s">
@@ -7014,44 +6992,44 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K7" s="3" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J7,$J$5:T6,2,FALSE),"")</f>
-        <v/>
+      <c r="K7" s="3">
+        <f>IFERROR(VLOOKUP(J7,$J$5:T6,2,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:T6,L$1,FALSE)="","",VLOOKUP($J7,$J$5:T6,L$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:T6,L$1,FALSE)="","",VLOOKUP($J7,$J$5:T6,L$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="M7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:U6,M$1,FALSE)="","",VLOOKUP($J7,$J$5:U6,M$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:U6,M$1,FALSE)="","",VLOOKUP($J7,$J$5:U6,M$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="N7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:V6,N$1,FALSE)="","",VLOOKUP($J7,$J$5:V6,N$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:V6,N$1,FALSE)="","",VLOOKUP($J7,$J$5:V6,N$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="O7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:W6,O$1,FALSE)="","",VLOOKUP($J7,$J$5:W6,O$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:W6,O$1,FALSE)="","",VLOOKUP($J7,$J$5:W6,O$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="P7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:X6,P$1,FALSE)="","",VLOOKUP($J7,$J$5:X6,P$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:X6,P$1,FALSE)="","",VLOOKUP($J7,$J$5:X6,P$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="Q7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:Y6,Q$1,FALSE)="","",VLOOKUP($J7,$J$5:Y6,Q$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:Y6,Q$1,FALSE)="","",VLOOKUP($J7,$J$5:Y6,Q$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="R7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:Z6,R$1,FALSE)="","",VLOOKUP($J7,$J$5:Z6,R$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:Z6,R$1,FALSE)="","",VLOOKUP($J7,$J$5:Z6,R$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="S7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:AA6,S$1,FALSE)="","",VLOOKUP($J7,$J$5:AA6,S$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:AA6,S$1,FALSE)="","",VLOOKUP($J7,$J$5:AA6,S$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="T7" s="3" t="str">
-        <f ca="1">IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:AB6,T$1,FALSE)="","",VLOOKUP($J7,$J$5:AB6,T$1,FALSE)),""))</f>
+        <f>IF($K7="","",IFERROR(IF(VLOOKUP($J7,$J$5:AB6,T$1,FALSE)="","",VLOOKUP($J7,$J$5:AB6,T$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="V7" s="3" t="s">
@@ -7100,44 +7078,44 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K8" s="3" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J8,$J$5:T7,2,FALSE),"")</f>
-        <v/>
+      <c r="K8" s="3">
+        <f>IFERROR(VLOOKUP(J8,$J$5:T7,2,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:T7,L$1,FALSE)="","",VLOOKUP($J8,$J$5:T7,L$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:T7,L$1,FALSE)="","",VLOOKUP($J8,$J$5:T7,L$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="M8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:U7,M$1,FALSE)="","",VLOOKUP($J8,$J$5:U7,M$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:U7,M$1,FALSE)="","",VLOOKUP($J8,$J$5:U7,M$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="N8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:V7,N$1,FALSE)="","",VLOOKUP($J8,$J$5:V7,N$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:V7,N$1,FALSE)="","",VLOOKUP($J8,$J$5:V7,N$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="O8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:W7,O$1,FALSE)="","",VLOOKUP($J8,$J$5:W7,O$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:W7,O$1,FALSE)="","",VLOOKUP($J8,$J$5:W7,O$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="P8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:X7,P$1,FALSE)="","",VLOOKUP($J8,$J$5:X7,P$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:X7,P$1,FALSE)="","",VLOOKUP($J8,$J$5:X7,P$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="Q8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:Y7,Q$1,FALSE)="","",VLOOKUP($J8,$J$5:Y7,Q$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:Y7,Q$1,FALSE)="","",VLOOKUP($J8,$J$5:Y7,Q$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="R8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:Z7,R$1,FALSE)="","",VLOOKUP($J8,$J$5:Z7,R$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:Z7,R$1,FALSE)="","",VLOOKUP($J8,$J$5:Z7,R$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="S8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:AA7,S$1,FALSE)="","",VLOOKUP($J8,$J$5:AA7,S$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:AA7,S$1,FALSE)="","",VLOOKUP($J8,$J$5:AA7,S$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="T8" s="3" t="str">
-        <f ca="1">IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:AB7,T$1,FALSE)="","",VLOOKUP($J8,$J$5:AB7,T$1,FALSE)),""))</f>
+        <f>IF($K8="","",IFERROR(IF(VLOOKUP($J8,$J$5:AB7,T$1,FALSE)="","",VLOOKUP($J8,$J$5:AB7,T$1,FALSE)),""))</f>
         <v/>
       </c>
       <c r="V8" s="3" t="s">
@@ -10753,7 +10731,7 @@
       </c>
       <c r="I5" s="2">
         <f>COUNTIF(캐릭터!$E$4:$E$55,G5)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -10974,7 +10952,7 @@
       </c>
       <c r="E13" s="2">
         <f>COUNTIF(캐릭터!$D$4:$D$55,$B13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>11</v>
@@ -11105,7 +11083,7 @@
       </c>
       <c r="I17" s="2">
         <f>COUNTIF(캐릭터!$G$4:$G$55,G17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -13202,27 +13180,27 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E4:E16 E18:E22 E24:E63">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,B17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13239,7 +13217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
       <formula>$H5=$I5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -13254,32 +13232,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B63 D4:D63">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>AND(ISBLANK(B$2)=FALSE,ISBLANK(B4)=FALSE,FIND(B$2,B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,D17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,D23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H10">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$H5=$I5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H28">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$H12=$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I28">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$H12=$I12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13340,7 +13318,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(C5:C55)-136</f>
-        <v>7718</v>
+        <v>7885</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -14753,7 +14731,7 @@
       </c>
       <c r="C42" s="2">
         <f>캐릭터!C42</f>
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="D42" s="3" t="str">
         <f>캐릭터!D42</f>
@@ -14784,27 +14762,27 @@
       </c>
       <c r="B43" s="3" t="str">
         <f>캐릭터!B43</f>
-        <v>K</v>
+        <v>K전사카이저</v>
       </c>
       <c r="C43" s="2">
         <f>캐릭터!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
+        <v>118</v>
+      </c>
+      <c r="D43" s="3" t="str">
         <f>캐릭터!D43</f>
-        <v>0</v>
+        <v>카이저</v>
       </c>
       <c r="E43" s="3" t="str">
         <f>캐릭터!E43</f>
-        <v/>
+        <v>전사</v>
       </c>
       <c r="F43" s="2">
         <f>캐릭터!F43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="3" t="str">
         <f>캐릭터!G43</f>
-        <v/>
+        <v>노바</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="3" t="str">
@@ -15211,37 +15189,37 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:B55">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>AND(ISBLANK(B$3)=FALSE,FIND(B$3,B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G55">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>AND(ISBLANK(G$3)=FALSE,FIND(G$3,G4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D55">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>AND(ISBLANK(D$3)=FALSE,FIND(D$3,D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E55">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>AND(ISBLANK(E$3)=FALSE,FIND(E$3,E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:H54">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$H5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I55">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(ISBLANK(I$3)=FALSE,FIND(I$3,I4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I54">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$H5=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16013,22 +15991,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A4:A57">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>AND(ISBLANK(A$3)=FALSE,FIND(A$3,A4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D57">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(ISBLANK(D$3)=FALSE,FIND(D$3,D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B57">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND(ISBLANK(B$3)=FALSE,FIND(B$3,B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C57">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(ISBLANK(C$3)=FALSE,FIND(C$3,C4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16489,10 +16467,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H5:H10">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -16507,10 +16485,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H19">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -16525,10 +16503,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H31">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">

--- a/메이플스토리.xlsx
+++ b/메이플스토리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD59F8BA-29BE-472F-AA84-7F2AF0E147E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7151DE-BDC4-46C4-85F0-4621E22687C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28965" yWindow="315" windowWidth="25215" windowHeight="15765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="352">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1374,6 +1374,10 @@
   </si>
   <si>
     <t>메타모포시스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K법사라라</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2607,7 +2611,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2691,7 +2695,7 @@
       </c>
       <c r="C3" s="26">
         <f>C4+캐릭터m!C3</f>
-        <v>8075</v>
+        <v>8090</v>
       </c>
       <c r="D3" s="1">
         <f>COUNTIF(D$6:D$56,"*" &amp; D4 &amp; "*")</f>
@@ -2716,7 +2720,7 @@
       </c>
       <c r="C4" s="15">
         <f>SUM(C6:C56)-136</f>
-        <v>7934</v>
+        <v>7949</v>
       </c>
       <c r="D4" t="s">
         <v>338</v>
@@ -2979,7 +2983,7 @@
       </c>
       <c r="X8" s="2">
         <f>COUNTIF($E$6:$E$56,V8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
@@ -4304,7 +4308,7 @@
       </c>
       <c r="X24" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
@@ -5679,7 +5683,7 @@
         <v>302</v>
       </c>
       <c r="C43" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>15</v>
@@ -5757,7 +5761,7 @@
         <v>333</v>
       </c>
       <c r="C44" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
@@ -5832,21 +5836,23 @@
         <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E45" s="2" t="str">
         <f>IF(D45="","",VLOOKUP($D45,직업!$B$3:$D$524,2,FALSE))</f>
-        <v/>
+        <v>마법사</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2" t="str">
         <f>IF(OR(E45="",RIGHT(D45,1)="M"),"",VLOOKUP($D45,직업!$B$3:$D$524,3,FALSE))</f>
-        <v/>
+        <v>아니마</v>
       </c>
       <c r="H45" s="2">
         <f>IFERROR(VLOOKUP(B45,배치!$B$4:$I$55,7,FALSE),"")</f>
@@ -5855,7 +5861,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K45" s="3" t="str">
         <f>IF(J45=0,"",VLOOKUP(J45,$J$6:T44,2,FALSE))</f>
@@ -10697,7 +10703,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
@@ -10829,7 +10835,7 @@
       </c>
       <c r="I6" s="2">
         <f>COUNTIF(캐릭터!$E$5:$E$56,G6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -11271,7 +11277,7 @@
       </c>
       <c r="I21" s="2">
         <f>COUNTIF(캐릭터!$G$5:$G$56,G21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -11346,7 +11352,7 @@
       </c>
       <c r="E24" s="2">
         <f>COUNTIF(캐릭터!$D$5:$D$56,$B24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2">
@@ -13386,7 +13392,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(C5:C55)-136</f>
-        <v>7934</v>
+        <v>7949</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -14803,7 +14809,7 @@
       </c>
       <c r="C42" s="2">
         <f>캐릭터!C43</f>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D42" s="3" t="str">
         <f>캐릭터!D43</f>
@@ -14840,7 +14846,7 @@
       </c>
       <c r="C43" s="2">
         <f>캐릭터!C44</f>
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>캐릭터!D44</f>
@@ -14873,32 +14879,32 @@
       </c>
       <c r="B44" s="3" t="str">
         <f>캐릭터!B45</f>
-        <v>K</v>
+        <v>K법사라라</v>
       </c>
       <c r="C44" s="2">
         <f>캐릭터!C45</f>
         <v>0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="str">
         <f>캐릭터!D45</f>
-        <v>0</v>
+        <v>라라</v>
       </c>
       <c r="E44" s="3" t="str">
         <f>캐릭터!E45</f>
-        <v/>
+        <v>마법사</v>
       </c>
       <c r="F44" s="2">
         <f>캐릭터!F45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="3" t="str">
         <f>캐릭터!G45</f>
-        <v/>
+        <v>아니마</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="3" t="str">
         <f>IF(D44=0,"",VLOOKUP(D44,유니온배치효과!$A$4:$D$57,4,FALSE))</f>
-        <v/>
+        <v>INT 증가(10/20/40/80/100)</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">

--- a/메이플스토리.xlsx
+++ b/메이플스토리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7151DE-BDC4-46C4-85F0-4621E22687C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482ECE11-CFC4-4176-BC74-11AB1B1084FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28965" yWindow="315" windowWidth="25215" windowHeight="15765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="361">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1378,6 +1378,42 @@
   </si>
   <si>
     <t>K법사라라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기가 슬래셔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드 스트라이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌 오브 소드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페트리파이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인퍼널 브레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윙비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기 뿌리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용맥분출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용맥흡수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1713,7 +1749,31 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2608,10 +2668,10 @@
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2695,7 +2755,7 @@
       </c>
       <c r="C3" s="26">
         <f>C4+캐릭터m!C3</f>
-        <v>8090</v>
+        <v>8346</v>
       </c>
       <c r="D3" s="1">
         <f>COUNTIF(D$6:D$56,"*" &amp; D4 &amp; "*")</f>
@@ -2720,7 +2780,7 @@
       </c>
       <c r="C4" s="15">
         <f>SUM(C6:C56)-136</f>
-        <v>7949</v>
+        <v>8205</v>
       </c>
       <c r="D4" t="s">
         <v>338</v>
@@ -5683,7 +5743,7 @@
         <v>302</v>
       </c>
       <c r="C43" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>15</v>
@@ -5761,7 +5821,7 @@
         <v>333</v>
       </c>
       <c r="C44" s="2">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
@@ -5838,7 +5898,9 @@
       <c r="B45" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2">
+        <v>206</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>35</v>
       </c>
@@ -6653,12 +6715,12 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D5:D56">
-    <cfRule type="expression" dxfId="57" priority="10">
+    <cfRule type="expression" dxfId="61" priority="10">
       <formula>AND(ISBLANK(D$4)=FALSE,FIND(D$4,D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B56">
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="60" priority="9">
       <formula>AND(ISBLANK(B$4)=FALSE,FIND(B$4,B5))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6687,17 +6749,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I56">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>AND(ISBLANK(I$4)=FALSE,FIND(I$4,I5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E56">
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="58" priority="6">
       <formula>AND(ISBLANK(E$4)=FALSE,FIND(E$4,E5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G56">
-    <cfRule type="expression" dxfId="53" priority="5">
+    <cfRule type="expression" dxfId="57" priority="5">
       <formula>AND(ISBLANK(G$4)=FALSE,FIND(G$4,G5))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6714,12 +6776,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:T56">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(ISBLANK(K6)=FALSE,FIND("자석",K6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D56">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>AND(ISBLANK(D2)=FALSE,ISBLANK(D6)=FALSE,FIND(D6,D$2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10617,12 +10679,12 @@
   <autoFilter ref="B4:J54" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D4:D55">
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="54" priority="11">
       <formula>AND(ISBLANK(D$3)=FALSE,FIND(D$3,D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B55">
-    <cfRule type="expression" dxfId="49" priority="10">
+    <cfRule type="expression" dxfId="53" priority="10">
       <formula>AND(ISBLANK(B$3)=FALSE,FIND(B$3,B4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10651,17 +10713,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I55">
-    <cfRule type="expression" dxfId="48" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>AND(ISBLANK(I$3)=FALSE,FIND(I$3,I4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E55">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>AND(ISBLANK(E$3)=FALSE,FIND(E$3,E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G55">
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>AND(ISBLANK(G$3)=FALSE,FIND(G$3,G4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10678,17 +10740,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:T55">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>AND(ISBLANK(K5)=FALSE,FIND("자석",K5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(ISBLANK(C$3)=FALSE,FIND(C$3,C42))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>AND(ISBLANK(C$3)=FALSE,FIND(C$3,C43))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12060,27 +12122,27 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E4:E16 E18:E22 E24:E63">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="45" priority="16">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,B17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="39" priority="12">
+    <cfRule type="expression" dxfId="43" priority="12">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12097,7 +12159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
       <formula>$H5=$I5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="9">
@@ -12112,32 +12174,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B63 D4:D63">
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>AND(ISBLANK(B$2)=FALSE,ISBLANK(B4)=FALSE,FIND(B$2,B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,D17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,D23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H10">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>$H5=$I5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H28">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>$H12=$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I28">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>$H12=$I12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13254,27 +13316,27 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E4:E16 E18:E22 E24:E63">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,B17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13291,7 +13353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
       <formula>$H5=$I5</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -13306,32 +13368,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B63 D4:D63">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>AND(ISBLANK(B$2)=FALSE,ISBLANK(B4)=FALSE,FIND(B$2,B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,D17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>AND(ISBLANK($B$2)=FALSE,FIND($B$2,D23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H10">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>$H5=$I5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H28">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>$H12=$I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I28">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>$H12=$I12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13392,7 +13454,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(C5:C55)-136</f>
-        <v>7949</v>
+        <v>8205</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -14809,7 +14871,7 @@
       </c>
       <c r="C42" s="2">
         <f>캐릭터!C43</f>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D42" s="3" t="str">
         <f>캐릭터!D43</f>
@@ -14846,7 +14908,7 @@
       </c>
       <c r="C43" s="2">
         <f>캐릭터!C44</f>
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>캐릭터!D44</f>
@@ -14883,7 +14945,7 @@
       </c>
       <c r="C44" s="2">
         <f>캐릭터!C45</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="D44" s="3" t="str">
         <f>캐릭터!D45</f>
@@ -15271,37 +15333,37 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:B55">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>AND(ISBLANK(B$3)=FALSE,FIND(B$3,B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G55">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND(ISBLANK(G$3)=FALSE,FIND(G$3,G4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D55">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>AND(ISBLANK(D$3)=FALSE,FIND(D$3,D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E55">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>AND(ISBLANK(E$3)=FALSE,FIND(E$3,E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:H54">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$H5=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I55">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(ISBLANK(I$3)=FALSE,FIND(I$3,I4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I54">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$H5=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16073,22 +16135,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A4:A57">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>AND(ISBLANK(A$3)=FALSE,FIND(A$3,A4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D57">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AND(ISBLANK(D$3)=FALSE,FIND(D$3,D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B57">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>AND(ISBLANK(B$3)=FALSE,FIND(B$3,B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C57">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(ISBLANK(C$3)=FALSE,FIND(C$3,C4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16100,10 +16162,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A3:H40"/>
+  <dimension ref="A3:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -16664,16 +16726,207 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1">
+        <f>COUNT(B44:G44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1">
+        <f t="shared" ref="H45:H49" si="4">COUNT(B45:G45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5</v>
+      </c>
+      <c r="G52" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="1">
+        <f>COUNT(B53:G53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="1">
+        <f t="shared" ref="H54:H55" si="5">COUNT(B54:G54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H5:H10">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16685,13 +16938,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H19">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16703,6 +16956,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H31">
+    <cfRule type="cellIs" dxfId="7" priority="10" stopIfTrue="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H40">
+    <cfRule type="cellIs" dxfId="5" priority="32" stopIfTrue="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H49">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -16720,14 +17009,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H40">
-    <cfRule type="cellIs" dxfId="1" priority="26" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H53:H55">
+    <cfRule type="cellIs" dxfId="1" priority="41" stopIfTrue="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/메이플스토리.xlsx
+++ b/메이플스토리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482ECE11-CFC4-4176-BC74-11AB1B1084FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB544E82-72E1-4887-AFF1-32ECA6F046D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="315" windowWidth="25215" windowHeight="15765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28860" yWindow="255" windowWidth="25215" windowHeight="15765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="362">
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1414,6 +1414,10 @@
   </si>
   <si>
     <t>용맥흡수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K도적칼리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2671,16 +2675,18 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
@@ -2753,10 +2759,7 @@
         <f>COUNTIF(B$6:B$56,"*" &amp; B4 &amp; "*")</f>
         <v>1</v>
       </c>
-      <c r="C3" s="26">
-        <f>C4+캐릭터m!C3</f>
-        <v>8346</v>
-      </c>
+      <c r="C3" s="26"/>
       <c r="D3" s="1">
         <f>COUNTIF(D$6:D$56,"*" &amp; D4 &amp; "*")</f>
         <v>0</v>
@@ -2775,12 +2778,16 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <f>MAX(A6:A56)</f>
+        <v>41</v>
+      </c>
       <c r="B4" t="s">
         <v>227</v>
       </c>
       <c r="C4" s="15">
-        <f>SUM(C6:C56)-136</f>
-        <v>8205</v>
+        <f>SUM(C6:C56)</f>
+        <v>8448</v>
       </c>
       <c r="D4" t="s">
         <v>338</v>
@@ -2843,7 +2850,8 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>1</v>
+        <f t="shared" ref="A6:A46" si="1">IF(ISBLANK(C6)=FALSE,_xlfn.RANK.EQ($C6,$C$6:$C$56),0)</f>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>85</v>
@@ -2859,7 +2867,7 @@
         <v>해적</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F43" si="1">IFERROR(VLOOKUP(E6,$V$7:$W$12,2,FALSE),0)</f>
+        <f t="shared" ref="F6:F43" si="2">IFERROR(VLOOKUP(E6,$V$7:$W$12,2,FALSE),0)</f>
         <v>5</v>
       </c>
       <c r="G6" s="2" t="str">
@@ -2910,8 +2918,8 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <f>A6+1</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>86</v>
@@ -2927,7 +2935,7 @@
         <v>해적</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G7" s="2" t="str">
@@ -2942,7 +2950,7 @@
         <v>135</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J43" si="2">IFERROR(VLOOKUP(G7,$V$15:$W$25,2,FALSE),0)</f>
+        <f t="shared" ref="J7:J43" si="3">IFERROR(VLOOKUP(G7,$V$15:$W$25,2,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2974,8 +2982,8 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <f t="shared" ref="A8:A42" si="3">A7+1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>87</v>
@@ -2991,7 +2999,7 @@
         <v>도적</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G8" s="2" t="str">
@@ -3006,7 +3014,7 @@
         <v>339</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -3048,8 +3056,8 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>88</v>
@@ -3065,7 +3073,7 @@
         <v>전사</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G9" s="2" t="str">
@@ -3080,7 +3088,7 @@
         <v>133</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K9" s="3" t="str">
@@ -3136,14 +3144,14 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C10" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>43</v>
@@ -3153,7 +3161,7 @@
         <v>궁수</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G10" s="2" t="str">
@@ -3168,7 +3176,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K10" s="3" t="str">
@@ -3219,13 +3227,13 @@
       </c>
       <c r="X10" s="2">
         <f>COUNTIF($E$6:$E$56,V10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>89</v>
@@ -3241,7 +3249,7 @@
         <v>마법사</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G11" s="2" t="str">
@@ -3256,7 +3264,7 @@
         <v>337</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -3294,8 +3302,8 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>90</v>
@@ -3311,7 +3319,7 @@
         <v>궁수</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G12" s="2" t="str">
@@ -3326,7 +3334,7 @@
         <v>137</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K12" s="3" t="str">
@@ -3382,8 +3390,8 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>91</v>
@@ -3399,7 +3407,7 @@
         <v>도적</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G13" s="2" t="str">
@@ -3414,7 +3422,7 @@
         <v>339</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K13" s="3" t="str">
@@ -3460,8 +3468,8 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>92</v>
@@ -3477,7 +3485,7 @@
         <v>마법사</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G14" s="2" t="str">
@@ -3492,7 +3500,7 @@
         <v>139</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K14" s="3" t="str">
@@ -3547,8 +3555,8 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>93</v>
@@ -3564,7 +3572,7 @@
         <v>해적</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G15" s="2" t="str">
@@ -3579,7 +3587,7 @@
         <v>337</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K15" s="3" t="str">
@@ -3635,8 +3643,8 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>94</v>
@@ -3652,7 +3660,7 @@
         <v>전사</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G16" s="2" t="str">
@@ -3667,7 +3675,7 @@
         <v>134</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -3695,8 +3703,8 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>95</v>
@@ -3712,7 +3720,7 @@
         <v>전사</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G17" s="2" t="str">
@@ -3727,7 +3735,7 @@
         <v>140</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K17" s="3" t="str">
@@ -3783,8 +3791,8 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>96</v>
@@ -3800,7 +3808,7 @@
         <v>궁수</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G18" s="2" t="str">
@@ -3815,7 +3823,7 @@
         <v>337</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K18" s="3" t="str">
@@ -3866,13 +3874,13 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>97</v>
@@ -3888,7 +3896,7 @@
         <v>궁수</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G19" s="2" t="str">
@@ -3903,7 +3911,7 @@
         <v>148</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K19" s="3" t="str">
@@ -3959,8 +3967,8 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>98</v>
@@ -3976,7 +3984,7 @@
         <v>전사</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G20" s="2" t="str">
@@ -3991,7 +3999,7 @@
         <v>138</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K20" s="3" t="str">
@@ -4047,8 +4055,8 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>99</v>
@@ -4064,7 +4072,7 @@
         <v>도적</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G21" s="2" t="str">
@@ -4079,7 +4087,7 @@
         <v>149</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K21" s="3" t="str">
@@ -4135,8 +4143,8 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>100</v>
@@ -4152,7 +4160,7 @@
         <v>전사</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G22" s="2" t="str">
@@ -4167,7 +4175,7 @@
         <v>136</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -4197,8 +4205,8 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>101</v>
@@ -4214,7 +4222,7 @@
         <v>궁수</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G23" s="2" t="str">
@@ -4229,7 +4237,7 @@
         <v>136</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K23" s="3" t="str">
@@ -4285,8 +4293,8 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>102</v>
@@ -4302,7 +4310,7 @@
         <v>마법사</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G24" s="2" t="str">
@@ -4317,7 +4325,7 @@
         <v>136</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K24" s="3" t="str">
@@ -4373,8 +4381,8 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>103</v>
@@ -4390,7 +4398,7 @@
         <v>도적</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G25" s="2" t="str">
@@ -4405,7 +4413,7 @@
         <v>136</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K25" s="3" t="str">
@@ -4457,8 +4465,8 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>104</v>
@@ -4474,7 +4482,7 @@
         <v>해적</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G26" s="2" t="str">
@@ -4489,7 +4497,7 @@
         <v>136</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K26" s="3" t="str">
@@ -4535,8 +4543,8 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>105</v>
@@ -4552,7 +4560,7 @@
         <v>도적해적</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G27" s="2" t="str">
@@ -4567,7 +4575,7 @@
         <v>141</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K27" s="3" t="str">
@@ -4613,8 +4621,8 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>106</v>
@@ -4630,7 +4638,7 @@
         <v>마법사</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G28" s="2" t="str">
@@ -4645,7 +4653,7 @@
         <v>344</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K28" s="3" t="str">
@@ -4691,8 +4699,8 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>124</v>
@@ -4708,7 +4716,7 @@
         <v>해적</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G29" s="2" t="str">
@@ -4723,7 +4731,7 @@
         <v>147</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -4745,8 +4753,8 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>129</v>
@@ -4762,7 +4770,7 @@
         <v>궁수</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G30" s="2" t="str">
@@ -4777,7 +4785,7 @@
         <v>148</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K30" s="3" t="str">
@@ -4823,8 +4831,8 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>131</v>
@@ -4840,7 +4848,7 @@
         <v>궁수</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G31" s="2" t="str">
@@ -4855,7 +4863,7 @@
         <v>142</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K31" s="3" t="str">
@@ -4902,8 +4910,8 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>286</v>
@@ -4919,7 +4927,7 @@
         <v>도적</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G32" s="2" t="str">
@@ -4934,7 +4942,7 @@
         <v>342</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K32" s="3" t="str">
@@ -4980,8 +4988,8 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>287</v>
@@ -4997,7 +5005,7 @@
         <v>마법사</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G33" s="2" t="str">
@@ -5012,7 +5020,7 @@
         <v>336</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K33" s="3" t="s">
@@ -5034,8 +5042,8 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>288</v>
@@ -5051,7 +5059,7 @@
         <v>전사</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G34" s="2" t="str">
@@ -5066,7 +5074,7 @@
         <v>341</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K34" s="3" t="str">
@@ -5112,8 +5120,8 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>289</v>
@@ -5129,7 +5137,7 @@
         <v>도적</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G35" s="2" t="str">
@@ -5144,7 +5152,7 @@
         <v>339</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K35" s="3" t="str">
@@ -5190,8 +5198,8 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>290</v>
@@ -5207,7 +5215,7 @@
         <v>해적</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G36" s="2" t="str">
@@ -5222,7 +5230,7 @@
         <v>269</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K36" s="3" t="str">
@@ -5268,8 +5276,8 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>291</v>
@@ -5285,7 +5293,7 @@
         <v>해적</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G37" s="2" t="str">
@@ -5300,7 +5308,7 @@
         <v>269</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K37" s="3" t="str">
@@ -5346,8 +5354,8 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>292</v>
@@ -5363,7 +5371,7 @@
         <v>해적</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G38" s="2" t="str">
@@ -5378,7 +5386,7 @@
         <v>269</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K38" s="3" t="str">
@@ -5424,8 +5432,8 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>275</v>
@@ -5441,7 +5449,7 @@
         <v>마법사</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G39" s="2" t="str">
@@ -5456,7 +5464,7 @@
         <v>139</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K39" s="3" t="str">
@@ -5502,8 +5510,8 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>277</v>
@@ -5519,7 +5527,7 @@
         <v>전사</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G40" s="2" t="str">
@@ -5534,7 +5542,7 @@
         <v>340</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K40" s="3" t="str">
@@ -5580,8 +5588,8 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>279</v>
@@ -5597,7 +5605,7 @@
         <v>전사</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G41" s="2" t="str">
@@ -5612,7 +5620,7 @@
         <v>340</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K41" s="3" t="str">
@@ -5658,8 +5666,8 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>281</v>
@@ -5675,7 +5683,7 @@
         <v>마법사</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G42" s="2" t="str">
@@ -5690,7 +5698,7 @@
         <v>139</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K42" s="3" t="str">
@@ -5736,8 +5744,8 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <f>A42+1</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>302</v>
@@ -5753,7 +5761,7 @@
         <v>전사</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G43" s="2" t="str">
@@ -5768,7 +5776,7 @@
         <v>335</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K43" s="3" t="str">
@@ -5814,14 +5822,14 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <f t="shared" ref="A44:A55" si="6">A43+1</f>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C44" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
@@ -5831,7 +5839,7 @@
         <v>전사</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" ref="F44:F55" si="7">IFERROR(VLOOKUP(E44,$V$7:$W$12,2,FALSE),0)</f>
+        <f t="shared" ref="F44:F55" si="6">IFERROR(VLOOKUP(E44,$V$7:$W$12,2,FALSE),0)</f>
         <v>1</v>
       </c>
       <c r="G44" s="2" t="str">
@@ -5846,7 +5854,7 @@
         <v>334</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44:J55" si="8">IFERROR(VLOOKUP(G44,$V$15:$W$25,2,FALSE),0)</f>
+        <f t="shared" ref="J44:J55" si="7">IFERROR(VLOOKUP(G44,$V$15:$W$25,2,FALSE),0)</f>
         <v>5</v>
       </c>
       <c r="K44" s="3" t="str">
@@ -5892,8 +5900,8 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>351</v>
@@ -5909,7 +5917,7 @@
         <v>마법사</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G45" s="2" t="str">
@@ -5922,7 +5930,7 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="K45" s="3" t="str">
@@ -5968,25 +5976,29 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C46" s="2">
+        <v>105</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E46" s="2" t="str">
         <f>IF(D46="","",VLOOKUP($D46,직업!$B$3:$D$524,2,FALSE))</f>
-        <v/>
+        <v>도적</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="str">
         <f>IF(OR(E46="",RIGHT(D46,1)="M"),"",VLOOKUP($D46,직업!$B$3:$D$524,3,FALSE))</f>
-        <v/>
+        <v>레프</v>
       </c>
       <c r="H46" s="2">
         <f>IFERROR(VLOOKUP(B46,배치!$B$4:$I$55,7,FALSE),"")</f>
@@ -5994,20 +6006,20 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="K46" s="3" t="str">
         <f>IF(J46=0,"",VLOOKUP(J46,$J$6:T45,2,FALSE))</f>
-        <v/>
+        <v>주니어리퍼</v>
       </c>
       <c r="L46" s="3" t="str">
         <f>IF($K46="","",IFERROR(IF(VLOOKUP($J46,$J$6:T45,L$1,FALSE)="","",VLOOKUP($J46,$J$6:T45,L$1,FALSE)),""))</f>
-        <v/>
+        <v>리퍼기타</v>
       </c>
       <c r="M46" s="3" t="str">
         <f>IF($K46="","",IFERROR(IF(VLOOKUP($J46,$J$6:U45,M$1,FALSE)="","",VLOOKUP($J46,$J$6:U45,M$1,FALSE)),""))</f>
-        <v/>
+        <v>생명수3</v>
       </c>
       <c r="N46" s="3" t="str">
         <f>IF($K46="","",IFERROR(IF(VLOOKUP($J46,$J$6:V45,N$1,FALSE)="","",VLOOKUP($J46,$J$6:V45,N$1,FALSE)),""))</f>
@@ -6040,8 +6052,8 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f>IF(ISBLANK(C47)=FALSE,_xlfn.RANK.EQ($C47,$C$6:$C$56),0)</f>
+        <v>0</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>71</v>
@@ -6053,7 +6065,7 @@
         <v/>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="str">
@@ -6066,7 +6078,7 @@
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K47" s="3" t="str">
@@ -6112,8 +6124,8 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <f t="shared" si="6"/>
-        <v>43</v>
+        <f t="shared" ref="A48:A55" si="8">IF(ISBLANK(C48)=FALSE,_xlfn.RANK.EQ($C48,$C$6:$C$56),0)</f>
+        <v>0</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>71</v>
@@ -6125,7 +6137,7 @@
         <v/>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="str">
@@ -6138,7 +6150,7 @@
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K48" s="3" t="str">
@@ -6184,8 +6196,8 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>71</v>
@@ -6197,7 +6209,7 @@
         <v/>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G49" s="2" t="str">
@@ -6210,7 +6222,7 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K49" s="3" t="str">
@@ -6256,8 +6268,8 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>71</v>
@@ -6269,7 +6281,7 @@
         <v/>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G50" s="2" t="str">
@@ -6282,7 +6294,7 @@
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K50" s="3" t="str">
@@ -6328,8 +6340,8 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <f t="shared" si="6"/>
-        <v>46</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>71</v>
@@ -6341,7 +6353,7 @@
         <v/>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G51" s="2" t="str">
@@ -6354,7 +6366,7 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K51" s="3" t="str">
@@ -6400,8 +6412,8 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <f t="shared" si="6"/>
-        <v>47</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>71</v>
@@ -6413,7 +6425,7 @@
         <v/>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="str">
@@ -6426,7 +6438,7 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K52" s="3" t="str">
@@ -6472,8 +6484,8 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>71</v>
@@ -6485,7 +6497,7 @@
         <v/>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G53" s="2" t="str">
@@ -6498,7 +6510,7 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K53" s="3" t="str">
@@ -6544,8 +6556,8 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <f t="shared" si="6"/>
-        <v>49</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>71</v>
@@ -6557,7 +6569,7 @@
         <v/>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G54" s="2" t="str">
@@ -6570,7 +6582,7 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K54" s="3" t="str">
@@ -6616,8 +6628,8 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <f t="shared" si="6"/>
-        <v>50</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>71</v>
@@ -6629,7 +6641,7 @@
         <v/>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G55" s="2" t="str">
@@ -6642,7 +6654,7 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K55" s="3" t="str">
@@ -6799,7 +6811,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6893,7 +6905,7 @@
       </c>
       <c r="C3" s="15">
         <f>LARGE($C$5:$C$55,C2)</f>
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
@@ -6962,7 +6974,7 @@
         <v>299</v>
       </c>
       <c r="C5" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>298</v>
@@ -7016,7 +7028,7 @@
         <v>285</v>
       </c>
       <c r="C6" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>283</v>
@@ -7102,7 +7114,7 @@
         <v>300</v>
       </c>
       <c r="C7" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>284</v>
@@ -10768,7 +10780,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -10957,7 +10969,7 @@
       </c>
       <c r="I8" s="2">
         <f>COUNTIF(캐릭터!$E$5:$E$56,G8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -11249,7 +11261,7 @@
       </c>
       <c r="I18" s="2">
         <f>COUNTIF(캐릭터!$G$5:$G$56,G18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -11766,7 +11778,7 @@
       </c>
       <c r="E40" s="2">
         <f>COUNTIF(캐릭터!$D$5:$D$56,$B40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -13454,7 +13466,7 @@
       </c>
       <c r="C3" s="12">
         <f>SUM(C5:C55)-136</f>
-        <v>8205</v>
+        <v>8312</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -13660,7 +13672,7 @@
       </c>
       <c r="C9" s="2">
         <f>캐릭터!C10</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>캐릭터!D10</f>
@@ -14908,7 +14920,7 @@
       </c>
       <c r="C43" s="2">
         <f>캐릭터!C44</f>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D43" s="3" t="str">
         <f>캐릭터!D44</f>
@@ -14976,32 +14988,32 @@
       </c>
       <c r="B45" s="3" t="str">
         <f>캐릭터!B46</f>
-        <v>K</v>
+        <v>K도적칼리</v>
       </c>
       <c r="C45" s="2">
         <f>캐릭터!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
+        <v>105</v>
+      </c>
+      <c r="D45" s="3" t="str">
         <f>캐릭터!D46</f>
-        <v>0</v>
+        <v>칼리</v>
       </c>
       <c r="E45" s="3" t="str">
         <f>캐릭터!E46</f>
-        <v/>
+        <v>도적</v>
       </c>
       <c r="F45" s="2">
         <f>캐릭터!F46</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" s="3" t="str">
         <f>캐릭터!G46</f>
-        <v/>
+        <v>레프</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="3" t="str">
         <f>IF(D45=0,"",VLOOKUP(D45,유니온배치효과!$A$4:$D$57,4,FALSE))</f>
-        <v/>
+        <v>LUK 증가(10/20/40/80/100)</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
